--- a/Backend/Model Metrics/metrics_rfc_Part2_vaso.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_Part2_vaso.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8577154308617234</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8644501278772379</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.6293706293706294</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8392857142857143</v>
+        <v>0.949438202247191</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9214784807956105</v>
+        <v>0.9186381074168799</v>
       </c>
     </row>
   </sheetData>
